--- a/timetable/TIMETABLE.xlsx
+++ b/timetable/TIMETABLE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="11171"/>
+    <workbookView windowWidth="23040" windowHeight="10464"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
-  <si>
-    <t>monday</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+  <si>
+    <t>MONDAY</t>
   </si>
   <si>
     <t>DBMS</t>
@@ -31,28 +31,28 @@
     <t>EP</t>
   </si>
   <si>
+    <t>TUESDAY</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>DSGT</t>
+  </si>
+  <si>
+    <t>HSS</t>
+  </si>
+  <si>
+    <t>WEDNESDAY</t>
+  </si>
+  <si>
+    <t>PCS LAB</t>
+  </si>
+  <si>
     <t>EP LAB</t>
   </si>
   <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>DSGT</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>HSS</t>
-  </si>
-  <si>
-    <t>wednesday</t>
-  </si>
-  <si>
-    <t>PCS LAB</t>
-  </si>
-  <si>
-    <t>thursday</t>
+    <t>THRUSDAY</t>
   </si>
   <si>
     <t>DS LAB</t>
@@ -61,7 +61,7 @@
     <t>PCS</t>
   </si>
   <si>
-    <t>friday</t>
+    <t>FRIDAY</t>
   </si>
   <si>
     <t>DBMS LAB</t>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1228,7 +1228,7 @@
     <col min="1" max="1" width="13.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1243,52 +1243,49 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1304,25 +1301,19 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/timetable/TIMETABLE.xlsx
+++ b/timetable/TIMETABLE.xlsx
@@ -52,7 +52,7 @@
     <t>EP LAB</t>
   </si>
   <si>
-    <t>THRUSDAY</t>
+    <t>THURSDAY</t>
   </si>
   <si>
     <t>DS LAB</t>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
